--- a/Clase 2 - Proyectos, Lectura y Escritura de Bases/Resultados/tabulado.xlsx
+++ b/Clase 2 - Proyectos, Lectura y Escritura de Bases/Resultados/tabulado.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">Descartado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin Clasificar</t>
   </si>
   <si>
     <t xml:space="preserve">Sospechoso</t>
@@ -383,13 +386,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1096</v>
+        <v>27041</v>
       </c>
       <c r="C2" t="n">
-        <v>1066</v>
+        <v>26733</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3">
@@ -397,13 +400,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3773</v>
+        <v>59021</v>
       </c>
       <c r="C3" t="n">
-        <v>3577</v>
+        <v>52648</v>
       </c>
       <c r="D3" t="n">
-        <v>191</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4">
@@ -411,13 +414,27 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7900</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7357</v>
+      </c>
+      <c r="D5" t="n">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
